--- a/data/output/FV2410_FV2404/UTILMD/55173.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55173.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="306">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="306">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1052,6 +1052,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U154" totalsRowShown="0">
+  <autoFilter ref="A1:U154"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1341,7 +1371,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8982,5 +9015,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55173.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55173.xlsx
@@ -1959,7 +1959,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4497,7 +4497,7 @@
         <v>278</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4713,7 +4713,7 @@
         <v>279</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5083,7 +5083,7 @@
         <v>281</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5453,7 +5453,7 @@
         <v>283</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5823,7 +5823,7 @@
         <v>285</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6193,7 +6193,7 @@
         <v>287</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6563,7 +6563,7 @@
         <v>288</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7133,7 +7133,7 @@
         <v>290</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7553,7 +7553,7 @@
         <v>293</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8027,7 +8027,7 @@
         <v>295</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8221,54 +8221,54 @@
       </c>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5" t="s">
+      <c r="E122" s="2"/>
+      <c r="F122" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
       <c r="J122" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="K122" s="5" t="s">
+      <c r="K122" s="2" t="s">
         <v>296</v>
       </c>
       <c r="L122" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="M122" s="5" t="s">
+      <c r="M122" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N122" s="5" t="s">
+      <c r="N122" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O122" s="5" t="s">
+      <c r="O122" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5" t="s">
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
       <c r="U122" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="V122" s="5" t="s">
+      <c r="V122" s="2" t="s">
         <v>296</v>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
         <v>298</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8631,7 +8631,7 @@
         <v>299</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8781,7 +8781,7 @@
         <v>300</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8947,7 +8947,7 @@
         <v>301</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9109,7 +9109,7 @@
         <v>302</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9259,7 +9259,7 @@
         <v>303</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9425,7 +9425,7 @@
         <v>304</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9845,7 +9845,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N152" s="2"/>
